--- a/sources/BIOTEC.xlsx
+++ b/sources/BIOTEC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Fedora\home\cheurte\Documents\grade\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956BB074-5B84-4CCD-AB18-756FF09C5E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85C5DC-02CD-4787-93D6-969977B2C0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-2610" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,24 +17,11 @@
     <sheet name="Master - Rigid Overview " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="345">
   <si>
     <t>Product Texts</t>
   </si>
@@ -1408,6 +1395,15 @@
   </si>
   <si>
     <t>Descriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>autre</t>
   </si>
 </sst>
 </file>
@@ -3580,31 +3576,31 @@
       <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="24.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="24.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
     <col min="10" max="23" width="19" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.28515625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="39.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="39.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5546875" style="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
-    <col min="34" max="41" width="16.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.28515625" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="16.28515625" style="1"/>
+    <col min="31" max="31" width="12.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="41" width="16.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="16.33203125" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="32.450000000000003" customHeight="1">
+    <row r="1" spans="1:41" ht="32.4" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3862,7 +3858,7 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
     </row>
-    <row r="4" spans="1:41" ht="39" thickBot="1">
+    <row r="4" spans="1:41" ht="40.200000000000003" thickBot="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -6618,7 +6614,7 @@
       <c r="AN37" s="116"/>
       <c r="AO37" s="116"/>
     </row>
-    <row r="38" spans="1:41" ht="19.899999999999999" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1">
       <c r="A38" s="108"/>
       <c r="B38" s="133" t="s">
         <v>228</v>
@@ -6684,40 +6680,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A61F0C-0BB8-4FD8-9515-685043313779}">
-  <dimension ref="A1:BJ14"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="7" width="24.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
-    <col min="10" max="44" width="19" style="1" customWidth="1"/>
-    <col min="45" max="45" width="15.42578125" style="1" customWidth="1"/>
-    <col min="46" max="46" width="13.28515625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13.42578125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="13.28515625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="39.28515625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="19.5703125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="36" style="1" customWidth="1"/>
-    <col min="52" max="52" width="12.140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="7.28515625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="11.7109375" style="1" customWidth="1"/>
-    <col min="55" max="62" width="16.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="16.28515625" style="1" customWidth="1"/>
-    <col min="64" max="16384" width="16.28515625" style="1"/>
+    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="24.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
+    <col min="10" max="45" width="19" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.44140625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="13.44140625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="13.33203125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="39.33203125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="19.5546875" style="1" customWidth="1"/>
+    <col min="52" max="52" width="36" style="1" customWidth="1"/>
+    <col min="53" max="53" width="12.109375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="7.33203125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="11.6640625" style="1" customWidth="1"/>
+    <col min="56" max="63" width="16.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="16.33203125" style="1" customWidth="1"/>
+    <col min="65" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="32.450000000000003" customHeight="1">
+    <row r="1" spans="1:63" ht="32.4" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6767,34 +6763,35 @@
       <c r="AO1" s="147"/>
       <c r="AP1" s="147"/>
       <c r="AQ1" s="147"/>
-      <c r="AR1" s="149" t="s">
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="149" t="s">
         <v>240</v>
       </c>
-      <c r="AS1" s="149"/>
-      <c r="AT1" s="153" t="s">
+      <c r="AT1" s="149"/>
+      <c r="AU1" s="153" t="s">
         <v>254</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="AV1" s="8"/>
       <c r="AW1" s="8"/>
       <c r="AX1" s="8"/>
       <c r="AY1" s="8"/>
-      <c r="BC1" s="9" t="s">
+      <c r="AZ1" s="8"/>
+      <c r="BD1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="BD1" s="10"/>
       <c r="BE1" s="10"/>
       <c r="BF1" s="10"/>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="BH1" s="12"/>
       <c r="BI1" s="12"/>
       <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
     </row>
-    <row r="2" spans="1:62" ht="44.1" customHeight="1">
+    <row r="2" spans="1:63" ht="44.1" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="13" t="s">
         <v>3</v>
@@ -6920,54 +6917,57 @@
         <v>279</v>
       </c>
       <c r="AQ2" s="147" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR2" s="147" t="s">
         <v>280</v>
       </c>
-      <c r="AR2" s="150"/>
       <c r="AS2" s="150"/>
-      <c r="AT2" s="154" t="s">
+      <c r="AT2" s="150"/>
+      <c r="AU2" s="154" t="s">
         <v>255</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AX2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AY2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BG2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="BG2" s="11" t="s">
+      <c r="BH2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BH2" s="11" t="s">
+      <c r="BI2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BI2" s="11" t="s">
+      <c r="BJ2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="BJ2" s="11" t="s">
+      <c r="BK2" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="44.1" customHeight="1">
+    <row r="3" spans="1:63" ht="44.1" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
@@ -7013,28 +7013,29 @@
       <c r="AO3" s="147"/>
       <c r="AP3" s="147"/>
       <c r="AQ3" s="147"/>
-      <c r="AR3" s="150" t="s">
+      <c r="AR3" s="147"/>
+      <c r="AS3" s="150" t="s">
         <v>335</v>
       </c>
-      <c r="AS3" s="150" t="s">
+      <c r="AT3" s="150" t="s">
         <v>336</v>
       </c>
-      <c r="AT3" s="154"/>
-      <c r="AU3" s="6"/>
+      <c r="AU3" s="154"/>
       <c r="AV3" s="6"/>
       <c r="AW3" s="6"/>
       <c r="AX3" s="6"/>
       <c r="AY3" s="6"/>
-      <c r="BC3" s="9"/>
+      <c r="AZ3" s="6"/>
       <c r="BD3" s="9"/>
       <c r="BE3" s="9"/>
       <c r="BF3" s="9"/>
-      <c r="BG3" s="11"/>
+      <c r="BG3" s="9"/>
       <c r="BH3" s="11"/>
       <c r="BI3" s="11"/>
       <c r="BJ3" s="11"/>
+      <c r="BK3" s="11"/>
     </row>
-    <row r="4" spans="1:62" ht="44.1" customHeight="1">
+    <row r="4" spans="1:63" ht="44.1" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
@@ -7148,30 +7149,33 @@
         <v>30</v>
       </c>
       <c r="AQ4" s="147" t="s">
+        <v>344</v>
+      </c>
+      <c r="AR4" s="147" t="s">
         <v>281</v>
       </c>
-      <c r="AR4" s="150" t="s">
+      <c r="AS4" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="AS4" s="150" t="s">
+      <c r="AT4" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="AT4" s="154"/>
-      <c r="AU4" s="6"/>
+      <c r="AU4" s="154"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
       <c r="AY4" s="6"/>
-      <c r="BC4" s="9"/>
+      <c r="AZ4" s="6"/>
       <c r="BD4" s="9"/>
       <c r="BE4" s="9"/>
       <c r="BF4" s="9"/>
-      <c r="BG4" s="11"/>
+      <c r="BG4" s="9"/>
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
       <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
     </row>
-    <row r="5" spans="1:62" ht="44.1" customHeight="1">
+    <row r="5" spans="1:63" ht="44.1" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
@@ -7231,24 +7235,25 @@
       <c r="AO5" s="147"/>
       <c r="AP5" s="147"/>
       <c r="AQ5" s="147"/>
-      <c r="AR5" s="150"/>
+      <c r="AR5" s="147"/>
       <c r="AS5" s="150"/>
-      <c r="AT5" s="154"/>
-      <c r="AU5" s="6"/>
+      <c r="AT5" s="150"/>
+      <c r="AU5" s="154"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
       <c r="AY5" s="6"/>
-      <c r="BC5" s="9"/>
+      <c r="AZ5" s="6"/>
       <c r="BD5" s="9"/>
       <c r="BE5" s="9"/>
       <c r="BF5" s="9"/>
-      <c r="BG5" s="11"/>
+      <c r="BG5" s="9"/>
       <c r="BH5" s="11"/>
       <c r="BI5" s="11"/>
       <c r="BJ5" s="11"/>
+      <c r="BK5" s="11"/>
     </row>
-    <row r="6" spans="1:62" ht="44.1" customHeight="1" thickBot="1">
+    <row r="6" spans="1:63" ht="44.1" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
@@ -7294,28 +7299,29 @@
       <c r="AO6" s="147"/>
       <c r="AP6" s="147"/>
       <c r="AQ6" s="147"/>
-      <c r="AR6" s="150" t="s">
+      <c r="AR6" s="147"/>
+      <c r="AS6" s="150" t="s">
         <v>339</v>
       </c>
-      <c r="AS6" s="150" t="s">
+      <c r="AT6" s="150" t="s">
         <v>340</v>
       </c>
-      <c r="AT6" s="154"/>
-      <c r="AU6" s="6"/>
+      <c r="AU6" s="154"/>
       <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
       <c r="AY6" s="6"/>
-      <c r="BC6" s="9"/>
+      <c r="AZ6" s="6"/>
       <c r="BD6" s="9"/>
       <c r="BE6" s="9"/>
       <c r="BF6" s="9"/>
-      <c r="BG6" s="11"/>
+      <c r="BG6" s="9"/>
       <c r="BH6" s="11"/>
       <c r="BI6" s="11"/>
       <c r="BJ6" s="11"/>
+      <c r="BK6" s="11"/>
     </row>
-    <row r="7" spans="1:62" ht="34.5" customHeight="1">
+    <row r="7" spans="1:63" ht="34.5" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>34</v>
       </c>
@@ -7369,7 +7375,7 @@
       <c r="AW7" s="25"/>
       <c r="AX7" s="25"/>
       <c r="AY7" s="25"/>
-      <c r="BC7" s="25"/>
+      <c r="AZ7" s="25"/>
       <c r="BD7" s="25"/>
       <c r="BE7" s="25"/>
       <c r="BF7" s="25"/>
@@ -7377,8 +7383,9 @@
       <c r="BH7" s="25"/>
       <c r="BI7" s="25"/>
       <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
     </row>
-    <row r="8" spans="1:62" ht="34.5" customHeight="1">
+    <row r="8" spans="1:63" ht="34.5" customHeight="1">
       <c r="A8" s="26"/>
       <c r="B8" s="27" t="s">
         <v>177</v>
@@ -7394,9 +7401,11 @@
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
       <c r="I8" s="33">
-        <v>1.62</v>
-      </c>
-      <c r="J8" s="32"/>
+        <v>6.2</v>
+      </c>
+      <c r="J8" s="32">
+        <v>5.2</v>
+      </c>
       <c r="K8" s="161">
         <v>11</v>
       </c>
@@ -7489,51 +7498,54 @@
       <c r="AP8" s="31">
         <v>0</v>
       </c>
-      <c r="AQ8" s="31">
+      <c r="AQ8" s="31" t="s">
+        <v>343</v>
+      </c>
+      <c r="AR8" s="31">
         <v>65</v>
       </c>
-      <c r="AR8" s="34">
+      <c r="AS8" s="34">
         <v>275</v>
       </c>
-      <c r="AS8" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT8" s="30" t="s">
+      <c r="AT8" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU8" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="AU8" s="30" t="s">
+      <c r="AV8" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AV8" s="30"/>
-      <c r="AW8" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="AW8" s="30"/>
       <c r="AX8" s="30" t="s">
         <v>42</v>
       </c>
       <c r="AY8" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BC8" s="30" t="s">
+      <c r="BD8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BD8" s="29" t="s">
+      <c r="BE8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="30" t="s">
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="BG8" s="30" t="s">
+      <c r="BH8" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="BH8" s="35"/>
-      <c r="BI8" s="30" t="s">
+      <c r="BI8" s="35"/>
+      <c r="BJ8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BJ8" s="35"/>
+      <c r="BK8" s="35"/>
     </row>
-    <row r="9" spans="1:62" ht="34.5" customHeight="1">
+    <row r="9" spans="1:63" ht="34.5" customHeight="1">
       <c r="A9" s="156"/>
       <c r="B9" s="27" t="s">
         <v>35</v>
@@ -7561,7 +7573,9 @@
       </c>
       <c r="J9" s="161"/>
       <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
+      <c r="L9" s="161" t="s">
+        <v>342</v>
+      </c>
       <c r="M9" s="160">
         <v>4.0999999999999996</v>
       </c>
@@ -7653,42 +7667,45 @@
         <v>283</v>
       </c>
       <c r="AQ9" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR9" s="34">
+        <v>343</v>
+      </c>
+      <c r="AR9" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS9" s="34">
         <v>100</v>
       </c>
-      <c r="AS9" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT9" s="30" t="s">
+      <c r="AT9" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AU9" s="30" t="s">
+      <c r="AV9" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AV9" s="30" t="s">
+      <c r="AW9" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="AW9" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="AX9" s="30" t="s">
         <v>42</v>
       </c>
       <c r="AY9" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BC9" s="158"/>
-      <c r="BD9" s="157"/>
-      <c r="BE9" s="159"/>
-      <c r="BF9" s="158"/>
+      <c r="BD9" s="158"/>
+      <c r="BE9" s="157"/>
+      <c r="BF9" s="159"/>
       <c r="BG9" s="158"/>
-      <c r="BH9" s="159"/>
-      <c r="BI9" s="158"/>
-      <c r="BJ9" s="159"/>
+      <c r="BH9" s="158"/>
+      <c r="BI9" s="159"/>
+      <c r="BJ9" s="158"/>
+      <c r="BK9" s="159"/>
     </row>
-    <row r="10" spans="1:62" ht="34.5" customHeight="1" thickBot="1">
+    <row r="10" spans="1:63" ht="34.5" customHeight="1" thickBot="1">
       <c r="A10" s="36"/>
       <c r="B10" s="37" t="s">
         <v>51</v>
@@ -7807,53 +7824,56 @@
       <c r="AP10" s="40">
         <v>0</v>
       </c>
-      <c r="AQ10" s="40">
+      <c r="AQ10" s="40" t="s">
+        <v>343</v>
+      </c>
+      <c r="AR10" s="40">
         <v>53</v>
       </c>
-      <c r="AR10" s="44">
+      <c r="AS10" s="44">
         <v>418</v>
       </c>
-      <c r="AS10" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT10" s="43" t="s">
+      <c r="AT10" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU10" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AU10" s="39" t="s">
+      <c r="AV10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AV10" s="43" t="s">
+      <c r="AW10" s="43" t="s">
         <v>58</v>
-      </c>
-      <c r="AW10" s="43" t="s">
-        <v>42</v>
       </c>
       <c r="AX10" s="43" t="s">
         <v>42</v>
       </c>
       <c r="AY10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="BC10" s="39" t="s">
+      <c r="BD10" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="BD10" s="39" t="s">
+      <c r="BE10" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="BE10" s="45"/>
-      <c r="BF10" s="43" t="s">
+      <c r="BF10" s="45"/>
+      <c r="BG10" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="BG10" s="43" t="s">
+      <c r="BH10" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="BH10" s="46"/>
-      <c r="BI10" s="43" t="s">
+      <c r="BI10" s="46"/>
+      <c r="BJ10" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="BJ10" s="46"/>
+      <c r="BK10" s="46"/>
     </row>
-    <row r="11" spans="1:62" ht="34.5" customHeight="1">
+    <row r="11" spans="1:63" ht="34.5" customHeight="1">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
         <v>320</v>
@@ -7907,8 +7927,9 @@
       <c r="AW11" s="25"/>
       <c r="AX11" s="25"/>
       <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
     </row>
-    <row r="12" spans="1:62" ht="34.5" customHeight="1">
+    <row r="12" spans="1:63" ht="34.5" customHeight="1">
       <c r="A12" s="26"/>
       <c r="B12" s="79" t="s">
         <v>172</v>
@@ -8017,33 +8038,34 @@
       <c r="AP12" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="AQ12" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR12" s="34">
+      <c r="AQ12" s="31"/>
+      <c r="AR12" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AS12" s="34">
         <v>100</v>
       </c>
-      <c r="AS12" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="AT12" s="30"/>
-      <c r="AU12" s="30" t="s">
+      <c r="AT12" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AV12" s="30" t="s">
+      <c r="AW12" s="30" t="s">
         <v>45</v>
-      </c>
-      <c r="AW12" s="30" t="s">
-        <v>42</v>
       </c>
       <c r="AX12" s="30" t="s">
         <v>42</v>
       </c>
       <c r="AY12" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ12" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="34.5" customHeight="1">
+    <row r="13" spans="1:63" ht="34.5" customHeight="1">
       <c r="A13" s="53"/>
       <c r="B13" s="86" t="s">
         <v>176</v>
@@ -8146,9 +8168,7 @@
       <c r="AP13" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="AQ13" s="31" t="s">
-        <v>283</v>
-      </c>
+      <c r="AQ13" s="31"/>
       <c r="AR13" s="31" t="s">
         <v>283</v>
       </c>
@@ -8173,8 +8193,11 @@
       <c r="AY13" s="31" t="s">
         <v>283</v>
       </c>
+      <c r="AZ13" s="31" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" ht="34.5" customHeight="1" thickBot="1">
+    <row r="14" spans="1:63" ht="34.5" customHeight="1" thickBot="1">
       <c r="A14" s="36"/>
       <c r="B14" s="94" t="s">
         <v>178</v>
@@ -8281,9 +8304,7 @@
       <c r="AP14" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="AQ14" s="40" t="s">
-        <v>283</v>
-      </c>
+      <c r="AQ14" s="40"/>
       <c r="AR14" s="40" t="s">
         <v>283</v>
       </c>
@@ -8306,6 +8327,9 @@
         <v>283</v>
       </c>
       <c r="AY14" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="AZ14" s="40" t="s">
         <v>283</v>
       </c>
     </row>

--- a/sources/BIOTEC.xlsx
+++ b/sources/BIOTEC.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Fedora\home\cheurte\Documents\grade\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85C5DC-02CD-4787-93D6-969977B2C0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A9E00-3083-400A-9175-4573497C3C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-2610" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3567,6 +3567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
@@ -3576,31 +3577,31 @@
       <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="24.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="24.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
     <col min="10" max="23" width="19" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="39.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="39.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" style="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="41" width="16.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="16.33203125" style="1" customWidth="1"/>
-    <col min="43" max="16384" width="16.33203125" style="1"/>
+    <col min="31" max="31" width="12.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="41" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="16.28515625" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="32.4" customHeight="1">
+    <row r="1" spans="1:41" ht="32.450000000000003" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3858,7 +3859,7 @@
       <c r="AN3" s="23"/>
       <c r="AO3" s="23"/>
     </row>
-    <row r="4" spans="1:41" ht="40.200000000000003" thickBot="1">
+    <row r="4" spans="1:41" ht="39" thickBot="1">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
@@ -6614,7 +6615,7 @@
       <c r="AN37" s="116"/>
       <c r="AO37" s="116"/>
     </row>
-    <row r="38" spans="1:41" ht="19.95" customHeight="1">
+    <row r="38" spans="1:41" ht="19.899999999999999" customHeight="1">
       <c r="A38" s="108"/>
       <c r="B38" s="133" t="s">
         <v>228</v>
@@ -6680,40 +6681,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A61F0C-0BB8-4FD8-9515-685043313779}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BK14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="24.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="24.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="1" customWidth="1"/>
     <col min="10" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="46" width="15.44140625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="13.33203125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="13.44140625" style="1" customWidth="1"/>
-    <col min="49" max="49" width="13.33203125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="39.33203125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="19.5546875" style="1" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="13.28515625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="13.42578125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="39.28515625" style="1" customWidth="1"/>
+    <col min="51" max="51" width="19.5703125" style="1" customWidth="1"/>
     <col min="52" max="52" width="36" style="1" customWidth="1"/>
-    <col min="53" max="53" width="12.109375" style="1" customWidth="1"/>
-    <col min="54" max="54" width="7.33203125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="11.6640625" style="1" customWidth="1"/>
-    <col min="56" max="63" width="16.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="16.33203125" style="1" customWidth="1"/>
-    <col min="65" max="16384" width="16.33203125" style="1"/>
+    <col min="53" max="53" width="12.140625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="7.28515625" style="1" customWidth="1"/>
+    <col min="55" max="55" width="11.7109375" style="1" customWidth="1"/>
+    <col min="56" max="63" width="16.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="16.28515625" style="1" customWidth="1"/>
+    <col min="65" max="16384" width="16.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="32.4" customHeight="1">
+    <row r="1" spans="1:63" ht="32.450000000000003" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
